--- a/7_Suspension/Fichiers_Suspension/Liste_A9.xlsx
+++ b/7_Suspension/Fichiers_Suspension/Liste_A9.xlsx
@@ -46,7 +46,7 @@
     <t>Statut code IMB</t>
   </si>
   <si>
-    <t>CEMRN2SP_1022</t>
+    <t>CEMRJ1CO_1013</t>
   </si>
   <si>
     <t>Liste A9</t>
